--- a/fuelData/groupDecompositionData/ethanol-isooctane.xlsx
+++ b/fuelData/groupDecompositionData/ethanol-isooctane.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abinswan/Documents/GroupContributionMethod/Compound_Descriptions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nrel-my.sharepoint.com/personal/dmontgo2_nrel_gov/Documents/Projects/SAF-VTO/GCM/FuelLib/fuelData/groupDecompositionData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B50AE-A5D9-3749-BAA5-45708D4EAF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D73B50AE-A5D9-3749-BAA5-45708D4EAF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCC40FF-8A57-8D4E-B7C5-8CD275E1B3C8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,238 +244,7 @@
     <t>C12-Tricycloparaffin</t>
   </si>
   <si>
-    <t>CH3 (1)</t>
-  </si>
-  <si>
-    <t>CH2 (2)</t>
-  </si>
-  <si>
-    <t>CH (3)</t>
-  </si>
-  <si>
     <t>C (4)</t>
-  </si>
-  <si>
-    <t>CH2=CH (1)</t>
-  </si>
-  <si>
-    <t>CH=CH (2)</t>
-  </si>
-  <si>
-    <t>CH2=C (2)</t>
-  </si>
-  <si>
-    <t>CH=C (3)</t>
-  </si>
-  <si>
-    <t>C=C (4)</t>
-  </si>
-  <si>
-    <t>CH2=C=CH(1)</t>
-  </si>
-  <si>
-    <t>ACH (2)</t>
-  </si>
-  <si>
-    <t>AC (3)</t>
-  </si>
-  <si>
-    <t>ACCH3 (2)</t>
-  </si>
-  <si>
-    <t>ACCH2 (3)</t>
-  </si>
-  <si>
-    <t>ACCH (4)</t>
-  </si>
-  <si>
-    <t>OH (1)</t>
-  </si>
-  <si>
-    <t>ACOH (2)</t>
-  </si>
-  <si>
-    <t>CH3CO (1)</t>
-  </si>
-  <si>
-    <t>CH2CO (2)</t>
-  </si>
-  <si>
-    <t>CHO (1)*</t>
-  </si>
-  <si>
-    <t>CH3COO (1)</t>
-  </si>
-  <si>
-    <t>CH2COO (2)</t>
-  </si>
-  <si>
-    <t>HCOO (1)</t>
-  </si>
-  <si>
-    <t>CH30 (1)</t>
-  </si>
-  <si>
-    <t>CH20 (2)</t>
-  </si>
-  <si>
-    <t>CH-O (3)</t>
-  </si>
-  <si>
-    <t>FCH20 (1)*</t>
-  </si>
-  <si>
-    <t>CH2NH2 (1)</t>
-  </si>
-  <si>
-    <t>CHNH2 (2)</t>
-  </si>
-  <si>
-    <t>CH3NH (2)</t>
-  </si>
-  <si>
-    <t>CH2NH (3)</t>
-  </si>
-  <si>
-    <t>CHNH (4)*</t>
-  </si>
-  <si>
-    <t>CH3N (2)</t>
-  </si>
-  <si>
-    <t>CH2N (3)</t>
-  </si>
-  <si>
-    <t>ACNH2 (2)</t>
-  </si>
-  <si>
-    <t>C5H4N (1)</t>
-  </si>
-  <si>
-    <t>C5H3N (2)</t>
-  </si>
-  <si>
-    <t>CH2CN (1)*</t>
-  </si>
-  <si>
-    <t>COOH (1)</t>
-  </si>
-  <si>
-    <t>CH2C1 (1)</t>
-  </si>
-  <si>
-    <t>CHC1 (2)</t>
-  </si>
-  <si>
-    <t>CC1 (3)</t>
-  </si>
-  <si>
-    <t>CHC12 (1)*</t>
-  </si>
-  <si>
-    <t>CC13 (1)</t>
-  </si>
-  <si>
-    <t>CC12 (2)</t>
-  </si>
-  <si>
-    <t>ACC1 (2)</t>
-  </si>
-  <si>
-    <t>CH2N02 (1)*</t>
-  </si>
-  <si>
-    <t>CHN02 (2)*</t>
-  </si>
-  <si>
-    <t>ACN02 (2)*</t>
-  </si>
-  <si>
-    <t>CH2SH (1)</t>
-  </si>
-  <si>
-    <t>C1(1)*</t>
-  </si>
-  <si>
-    <t>Br (1)</t>
-  </si>
-  <si>
-    <t>CH=C (1)</t>
-  </si>
-  <si>
-    <t>C=c (2)*</t>
-  </si>
-  <si>
-    <t>Cl—(C=C) (3)*</t>
-  </si>
-  <si>
-    <t>ACF (2)</t>
-  </si>
-  <si>
-    <t>HCON(CH2)2 (2)*</t>
-  </si>
-  <si>
-    <t>CF3 (1)</t>
-  </si>
-  <si>
-    <t>CF2 (2)</t>
-  </si>
-  <si>
-    <t>CF (3)</t>
-  </si>
-  <si>
-    <t>COO (2)</t>
-  </si>
-  <si>
-    <t>CC12F (1)</t>
-  </si>
-  <si>
-    <t>HCC1F (1)</t>
-  </si>
-  <si>
-    <t>CC1F2 (1)</t>
-  </si>
-  <si>
-    <t>FSpecial (1)</t>
-  </si>
-  <si>
-    <t>CONH2 (1)*</t>
-  </si>
-  <si>
-    <t>CONHCH3 (1)*</t>
-  </si>
-  <si>
-    <t>CONHCH2 (1)*</t>
-  </si>
-  <si>
-    <t>CON(CH3)2 (1)*</t>
-  </si>
-  <si>
-    <t>CONCH2CH2 (3)*</t>
-  </si>
-  <si>
-    <t>CON(CH2)2 (3)*</t>
-  </si>
-  <si>
-    <t>C2H502 (1)*</t>
-  </si>
-  <si>
-    <t>C2H402 (2)</t>
-  </si>
-  <si>
-    <t>CH3S (1)</t>
-  </si>
-  <si>
-    <t>CH2S (2)</t>
-  </si>
-  <si>
-    <t>CHS (3)*</t>
-  </si>
-  <si>
-    <t>C4H3S (1)</t>
-  </si>
-  <si>
-    <t>C4H2S (2)*</t>
   </si>
   <si>
     <t>Group j  (CH3)2CH</t>
@@ -508,25 +277,7 @@
     <t>7 membered ring</t>
   </si>
   <si>
-    <t>CR=CRm—CRp=CRk m, p G (0,1), K n G (0,2)</t>
-  </si>
-  <si>
-    <t>CH3-CHm=CH, m G (0,1), n G (0,2)</t>
-  </si>
-  <si>
-    <t>CH2-CHm=CH, m G (0,1), n G (0,2)</t>
-  </si>
-  <si>
-    <t>CH—CUm=CUn or C—CHm=CH/ m G (0,1), n G (0,2)</t>
-  </si>
-  <si>
     <t>Alicyclic side-chain CcyclicCm m &gt; 1</t>
-  </si>
-  <si>
-    <t>ch3ch3</t>
-  </si>
-  <si>
-    <t>CHCHO or CCHO*</t>
   </si>
   <si>
     <t>CH3COCH2</t>
@@ -535,28 +286,7 @@
     <t>CH3COCH or CH3COC</t>
   </si>
   <si>
-    <t>Ccyclic^=0</t>
-  </si>
-  <si>
-    <t>ACCHO*</t>
-  </si>
-  <si>
-    <t>CHCOOH or CCOOH*</t>
-  </si>
-  <si>
-    <t>ACCOOH*</t>
-  </si>
-  <si>
     <t>CH3COOCH or CH3COOC</t>
-  </si>
-  <si>
-    <t>COCH2COO or COCHCOO or COCCOO*</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CO—O—CO</t>
-  </si>
-  <si>
-    <t>ACCOO*</t>
   </si>
   <si>
     <t>CHOH</t>
@@ -565,49 +295,319 @@
     <t>COH</t>
   </si>
   <si>
-    <t>CHm(OH)CHn(OH)</t>
+    <t>C2-alcohol</t>
   </si>
   <si>
-    <t>CHm cyclic-OH</t>
+    <t>CH3</t>
   </si>
   <si>
-    <t>CHn(OH)CHm(NHp)</t>
+    <t>CH2</t>
   </si>
   <si>
-    <t>CHm(NH2)CHn(NH2)*</t>
+    <t>CH</t>
   </si>
   <si>
-    <t>CHm cyclic—NHp—CHn cyclic*</t>
+    <t>CH2=CH</t>
   </si>
   <si>
-    <t>CHn_x0003_O_x0003_CHm_x0001_CHp*</t>
+    <t>CH=CH</t>
   </si>
   <si>
-    <t>AC—O—CHm*</t>
+    <t>CH2=C</t>
   </si>
   <si>
-    <t>CHm cyclic—S—CHn cyclic</t>
+    <t>CH=C</t>
   </si>
   <si>
-    <t>CHn_x0001_CHm—F</t>
+    <t>C=C</t>
   </si>
   <si>
-    <t>CHn_x0001_CHm—Br*</t>
+    <t>CH2=C=CH</t>
   </si>
   <si>
-    <t>CHn_x0001_CHm—I*</t>
+    <t>ACH</t>
   </si>
   <si>
-    <t>ACBr*</t>
+    <t>AC</t>
   </si>
   <si>
-    <t>ACI*</t>
+    <t>ACCH3</t>
   </si>
   <si>
-    <t>CHm(NH2)—COOH*</t>
+    <t>ACCH2</t>
   </si>
   <si>
-    <t>C2-alcohol</t>
+    <t>ACCH</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>ACOH</t>
+  </si>
+  <si>
+    <t>CH3CO</t>
+  </si>
+  <si>
+    <t>CH2CO</t>
+  </si>
+  <si>
+    <t>CHO</t>
+  </si>
+  <si>
+    <t>CH3COO</t>
+  </si>
+  <si>
+    <t>CH2COO</t>
+  </si>
+  <si>
+    <t>HCOO</t>
+  </si>
+  <si>
+    <t>CH3O</t>
+  </si>
+  <si>
+    <t>CH2O</t>
+  </si>
+  <si>
+    <t>CH-O</t>
+  </si>
+  <si>
+    <t>FCH2O</t>
+  </si>
+  <si>
+    <t>CH2NH2</t>
+  </si>
+  <si>
+    <t>CHNH2</t>
+  </si>
+  <si>
+    <t>CH3NH</t>
+  </si>
+  <si>
+    <t>CH2NH</t>
+  </si>
+  <si>
+    <t>CHNH</t>
+  </si>
+  <si>
+    <t>CH3N</t>
+  </si>
+  <si>
+    <t>CH2N</t>
+  </si>
+  <si>
+    <t>ACNH2</t>
+  </si>
+  <si>
+    <t>C5H4N</t>
+  </si>
+  <si>
+    <t>C5H3N</t>
+  </si>
+  <si>
+    <t>CH2CN</t>
+  </si>
+  <si>
+    <t>COOH</t>
+  </si>
+  <si>
+    <t>CH2CL</t>
+  </si>
+  <si>
+    <t>CHCL</t>
+  </si>
+  <si>
+    <t>CCL</t>
+  </si>
+  <si>
+    <t>CHCL2</t>
+  </si>
+  <si>
+    <t>CCL2</t>
+  </si>
+  <si>
+    <t>CCL3</t>
+  </si>
+  <si>
+    <t>ACCL</t>
+  </si>
+  <si>
+    <t>CH2NO2</t>
+  </si>
+  <si>
+    <t>CHNO2</t>
+  </si>
+  <si>
+    <t>ACNO2</t>
+  </si>
+  <si>
+    <t>CH2SH</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>CH=-C</t>
+  </si>
+  <si>
+    <t>C=-c</t>
+  </si>
+  <si>
+    <t>CL—(C=C)</t>
+  </si>
+  <si>
+    <t>ACF</t>
+  </si>
+  <si>
+    <t>HCON(CH2)2</t>
+  </si>
+  <si>
+    <t>CF3</t>
+  </si>
+  <si>
+    <t>CF2</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>CCL2F</t>
+  </si>
+  <si>
+    <t>HCCLF</t>
+  </si>
+  <si>
+    <t>CCLF2</t>
+  </si>
+  <si>
+    <t>Fspecial</t>
+  </si>
+  <si>
+    <t>CONH2</t>
+  </si>
+  <si>
+    <t>CONHCH3</t>
+  </si>
+  <si>
+    <t>CONHCH2</t>
+  </si>
+  <si>
+    <t>CON(CH3)2</t>
+  </si>
+  <si>
+    <t>CONCH3CH2</t>
+  </si>
+  <si>
+    <t>CON(CH2)2</t>
+  </si>
+  <si>
+    <t>C2H5O2</t>
+  </si>
+  <si>
+    <t>C2H4O2</t>
+  </si>
+  <si>
+    <t>CH3S</t>
+  </si>
+  <si>
+    <t>CH2S</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>C4H3S</t>
+  </si>
+  <si>
+    <t>C4H2S</t>
+  </si>
+  <si>
+    <t>CHn=CHm—CHp=CHk k,n,m,p in (0,2)</t>
+  </si>
+  <si>
+    <t>CH3-CHm=CH, m in (0,1), n in (0,2)</t>
+  </si>
+  <si>
+    <t>CH2-CHm=CHn, m, n in (0,2)</t>
+  </si>
+  <si>
+    <t>CH-CHm=CHn or C-CHm=CHn, m,n m in (0,2)</t>
+  </si>
+  <si>
+    <t>CH3CH3</t>
+  </si>
+  <si>
+    <t>CHCHO or CCHO</t>
+  </si>
+  <si>
+    <t>Ccyclic(=0)</t>
+  </si>
+  <si>
+    <t>ACCHO</t>
+  </si>
+  <si>
+    <t>CHCOOH or CCOOH</t>
+  </si>
+  <si>
+    <t>ACCOOH</t>
+  </si>
+  <si>
+    <t>COCH2COO or COCHCOO or COCCOO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CO-O-CO</t>
+  </si>
+  <si>
+    <t>ACCOO</t>
+  </si>
+  <si>
+    <t>CHm(OH)CHn(OH), m,n in (0,2)</t>
+  </si>
+  <si>
+    <t>CHm cyclic-OH, m in (0,1)</t>
+  </si>
+  <si>
+    <t>CHm(OH)CHn(NHp), m,n,p in (0,3)</t>
+  </si>
+  <si>
+    <t>CHm(NH2)CHn(NH2)</t>
+  </si>
+  <si>
+    <t>CHm cyclic-NHp-CHn cyclic, m,n,p in (0,2)</t>
+  </si>
+  <si>
+    <t>Chm=Chn-F, m,n in (0,2)</t>
+  </si>
+  <si>
+    <t>AC-O-CHm</t>
+  </si>
+  <si>
+    <t>CHm cyclic-S-CHn cyclic, m,n in (0,2)</t>
+  </si>
+  <si>
+    <t>CHm=CHn—F, m,n in (0,2)</t>
+  </si>
+  <si>
+    <t>CHm=CHn—Br, m,n in (0,2)</t>
+  </si>
+  <si>
+    <t>CHm=CHn—I, m,n in (0,2)</t>
+  </si>
+  <si>
+    <t>ACBr</t>
+  </si>
+  <si>
+    <t>ACI</t>
+  </si>
+  <si>
+    <t>CHm(NH2)-COOH, m,n in (0,2)</t>
   </si>
 </sst>
 </file>
@@ -986,8 +986,8 @@
   <dimension ref="A1:DR69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B22" sqref="B22"/>
+      <pane xSplit="1" topLeftCell="CU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:DR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,367 +1000,367 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="CP1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CS1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CY1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="DE1" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:122" x14ac:dyDescent="0.2">
@@ -26021,7 +26021,7 @@
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -26430,4 +26430,10 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{95965d95-ecc0-4720-b759-1f33c42ed7da}" enabled="1" method="Standard" siteId="{a0f29d7e-28cd-4f54-8442-7885aee7c080}" removed="0"/>
+</clbl:labelList>
 </file>